--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/31.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/31.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2685660271377724</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.94889459653028</v>
+        <v>-1.940237241375237</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1329500150460701</v>
+        <v>0.1295057615996165</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1479588575004908</v>
+        <v>-0.1472872353786729</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2653075439478096</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.091773442658514</v>
+        <v>-2.082684643292608</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06963064943954163</v>
+        <v>0.06707264518426959</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1200062368000438</v>
+        <v>-0.1201201205511347</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2863155874646797</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.305258024390957</v>
+        <v>-2.294133187962278</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05720272008972678</v>
+        <v>0.05370444486390954</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1436677761613102</v>
+        <v>-0.1431728198584921</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3286604076689856</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.475374797679139</v>
+        <v>-2.463795886294187</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001516485902469007</v>
+        <v>8.563877337848238e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1688813466432125</v>
+        <v>-0.168649198996758</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3792230154961658</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.546133108308847</v>
+        <v>-2.533737300017032</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07429213107369245</v>
+        <v>-0.07339566154587451</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1715108932549391</v>
+        <v>-0.1721270335493026</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4222451521980922</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.343793803678356</v>
+        <v>-2.333466153507313</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1282657288503143</v>
+        <v>-0.1237877613554973</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1471032693192184</v>
+        <v>-0.1478493538936727</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4468508521724695</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.037060330523847</v>
+        <v>-2.025367535387805</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.179987932470755</v>
+        <v>-0.1727446338917569</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1156129520944995</v>
+        <v>-0.1167474094611356</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.4452075150776486</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.684209778369897</v>
+        <v>-1.671053285022718</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1093464256883194</v>
+        <v>-0.1028477516356848</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07316643399560185</v>
+        <v>-0.07368913121214717</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.4100215624211337</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.254297157953739</v>
+        <v>-1.239252822425016</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007625327114831004</v>
+        <v>0.01010740886937579</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0104179471926187</v>
+        <v>-0.01086472190843676</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3362428300021743</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9437390888250954</v>
+        <v>-0.9257921776916457</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07459189285244938</v>
+        <v>0.07427068227244947</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01626689984479894</v>
+        <v>-0.01607125340061718</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.225013189101847</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5816938838186471</v>
+        <v>-0.560266218036471</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1480352319213387</v>
+        <v>0.1450669541525214</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02310138495834256</v>
+        <v>-0.02096971474561586</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.0850192817943968</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1413083384464017</v>
+        <v>-0.1151355163687724</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01183902590519351</v>
+        <v>0.009881101415284943</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04572090190282077</v>
+        <v>0.04794747524145654</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.06884954866578466</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3097939599131135</v>
+        <v>0.3391905681754692</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1619607186923053</v>
+        <v>-0.1629681518750323</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1123516565795302</v>
+        <v>0.1165507548889836</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.222431605214222</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8543276557060582</v>
+        <v>0.8840834357987775</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1774897901872102</v>
+        <v>-0.1833358227432086</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1942486740947809</v>
+        <v>0.1984346319714161</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3737866127302962</v>
       </c>
       <c r="E16" t="n">
-        <v>1.555699717424415</v>
+        <v>1.582824490857317</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5116232558397569</v>
+        <v>-0.5179657047466643</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2594515017385816</v>
+        <v>0.2634870746618532</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.529156187907134</v>
       </c>
       <c r="E17" t="n">
-        <v>2.263160179681862</v>
+        <v>2.286643593176037</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6767254939597125</v>
+        <v>-0.6850974097129829</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3692704789443703</v>
+        <v>0.3739455529314599</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.69482907928978</v>
       </c>
       <c r="E18" t="n">
-        <v>3.029291214424383</v>
+        <v>3.048594510234287</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9550822024433651</v>
+        <v>-0.9630321642983629</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4799961460146133</v>
+        <v>0.4852639995266118</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8699720547441754</v>
       </c>
       <c r="E19" t="n">
-        <v>3.661256970045214</v>
+        <v>3.676599155384482</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.194924302336937</v>
+        <v>-1.202906385249935</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5994806415822176</v>
+        <v>0.6053514949557615</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.046541464718514</v>
       </c>
       <c r="E20" t="n">
-        <v>4.32691041526758</v>
+        <v>4.335429795878032</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.455410022187867</v>
+        <v>-1.462984751683501</v>
       </c>
       <c r="G20" t="n">
-        <v>0.710070524180006</v>
+        <v>0.7178233795427312</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.214064312853821</v>
       </c>
       <c r="E21" t="n">
-        <v>4.852383183233712</v>
+        <v>4.857979547566165</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.729634794574248</v>
+        <v>-1.734631079141338</v>
       </c>
       <c r="G21" t="n">
-        <v>0.858185102762239</v>
+        <v>0.8654021204756007</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.363559599862318</v>
       </c>
       <c r="E22" t="n">
-        <v>5.373767816545299</v>
+        <v>5.374053985971117</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.949214347062189</v>
+        <v>-1.954360286558597</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9443031193083068</v>
+        <v>0.952359664673941</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.487923670014252</v>
       </c>
       <c r="E23" t="n">
-        <v>5.723258068018024</v>
+        <v>5.71963714875257</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.200901087093258</v>
+        <v>-2.202402016530712</v>
       </c>
       <c r="G23" t="n">
-        <v>1.05335849136255</v>
+        <v>1.062394728997184</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.581593218686402</v>
       </c>
       <c r="E24" t="n">
-        <v>6.149465086379455</v>
+        <v>6.140669756679821</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.432563997581559</v>
+        <v>-2.430888592397241</v>
       </c>
       <c r="G24" t="n">
-        <v>1.174888514305518</v>
+        <v>1.182050050191425</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.641055622767807</v>
       </c>
       <c r="E25" t="n">
-        <v>6.443150839769557</v>
+        <v>6.428626281361198</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.556029314269026</v>
+        <v>-2.555578159408935</v>
       </c>
       <c r="G25" t="n">
-        <v>1.248880831456589</v>
+        <v>1.25609638912186</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.665996558591244</v>
       </c>
       <c r="E26" t="n">
-        <v>6.61104468983933</v>
+        <v>6.590868285271063</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.604281713601422</v>
+        <v>-2.605121241253695</v>
       </c>
       <c r="G26" t="n">
-        <v>1.313825230588298</v>
+        <v>1.319541318864206</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.657375544597714</v>
       </c>
       <c r="E27" t="n">
-        <v>6.716779912534848</v>
+        <v>6.69454630020649</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.690169042549126</v>
+        <v>-2.688112564813081</v>
       </c>
       <c r="G27" t="n">
-        <v>1.323446947507387</v>
+        <v>1.330872752097748</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.619209130648905</v>
       </c>
       <c r="E28" t="n">
-        <v>6.90400187923207</v>
+        <v>6.87610766045526</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.716438227800756</v>
+        <v>-2.715749815125892</v>
       </c>
       <c r="G28" t="n">
-        <v>1.36358804967074</v>
+        <v>1.37059336041092</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.556169388668242</v>
       </c>
       <c r="E29" t="n">
-        <v>6.868801579808352</v>
+        <v>6.839390371065088</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.738176883826295</v>
+        <v>-2.736413145732477</v>
       </c>
       <c r="G29" t="n">
-        <v>1.349492745401107</v>
+        <v>1.356289269264287</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.4754354821483</v>
       </c>
       <c r="E30" t="n">
-        <v>6.805352269921733</v>
+        <v>6.77414520202665</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.63908853006464</v>
+        <v>-2.640209116974412</v>
       </c>
       <c r="G30" t="n">
-        <v>1.332629189951112</v>
+        <v>1.339447614535655</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.384009755322712</v>
       </c>
       <c r="E31" t="n">
-        <v>6.832995360426907</v>
+        <v>6.795778734589645</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.538783226219213</v>
+        <v>-2.54144635393703</v>
       </c>
       <c r="G31" t="n">
-        <v>1.294427031652486</v>
+        <v>1.301076090658484</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.290128142432476</v>
       </c>
       <c r="E32" t="n">
-        <v>6.794730420060372</v>
+        <v>6.75311174922902</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.404095979905021</v>
+        <v>-2.408465173817066</v>
       </c>
       <c r="G32" t="n">
-        <v>1.248613642655952</v>
+        <v>1.254172045738042</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.198414124698192</v>
       </c>
       <c r="E33" t="n">
-        <v>6.629320111793235</v>
+        <v>6.585436906372883</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.370387119606167</v>
+        <v>-2.373332766629575</v>
       </c>
       <c r="G33" t="n">
-        <v>1.190543149936241</v>
+        <v>1.196136594172512</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.11313814648695</v>
       </c>
       <c r="E34" t="n">
-        <v>6.330220500082042</v>
+        <v>6.289447197095326</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.332466750589086</v>
+        <v>-2.336773162433221</v>
       </c>
       <c r="G34" t="n">
-        <v>1.140676667439345</v>
+        <v>1.146109506385616</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.034968879765715</v>
       </c>
       <c r="E35" t="n">
-        <v>6.135489506053276</v>
+        <v>6.093682489018197</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.295564035091369</v>
+        <v>-2.298090648312686</v>
       </c>
       <c r="G35" t="n">
-        <v>1.081338852976724</v>
+        <v>1.085883982683723</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9657394088733194</v>
       </c>
       <c r="E36" t="n">
-        <v>5.938783066957511</v>
+        <v>5.896489853908159</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.230752500335932</v>
+        <v>-2.235237038047158</v>
       </c>
       <c r="G36" t="n">
-        <v>1.060750714846821</v>
+        <v>1.062850264001548</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9045462873480012</v>
       </c>
       <c r="E37" t="n">
-        <v>5.631565587860866</v>
+        <v>5.591491647909695</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.186918206526625</v>
+        <v>-2.189915685257261</v>
       </c>
       <c r="G37" t="n">
-        <v>0.954948329939122</v>
+        <v>0.9581750362200303</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8519217364537016</v>
       </c>
       <c r="E38" t="n">
-        <v>5.32577457574904</v>
+        <v>5.285169178292778</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.140650742573819</v>
+        <v>-2.143653331472773</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8815298116877781</v>
+        <v>0.8846134332557773</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8062383270368773</v>
       </c>
       <c r="E39" t="n">
-        <v>5.011859856059396</v>
+        <v>4.969744768877135</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.082582439926244</v>
+        <v>-2.085005389733107</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8005234235079818</v>
+        <v>0.804180843975708</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7663223881528795</v>
       </c>
       <c r="E40" t="n">
-        <v>4.721630036500474</v>
+        <v>4.678614099646122</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.10425904390792</v>
+        <v>-2.104070697704193</v>
       </c>
       <c r="G40" t="n">
-        <v>0.760891878128356</v>
+        <v>0.7633710397867189</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7286326221417571</v>
       </c>
       <c r="E41" t="n">
-        <v>4.399394502740742</v>
+        <v>4.35840219254039</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.998133258348085</v>
+        <v>-1.999004907058358</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6811192305853774</v>
+        <v>0.6840013655168312</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6915738353630817</v>
       </c>
       <c r="E42" t="n">
-        <v>4.019608253381663</v>
+        <v>3.981844109510309</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.907455511614109</v>
+        <v>-1.9086534810727</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6021846506465804</v>
+        <v>0.6044535653798525</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6524484666259894</v>
       </c>
       <c r="E43" t="n">
-        <v>3.717346177505562</v>
+        <v>3.681221667640299</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.854817127816623</v>
+        <v>-1.856241404729305</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5618552022795004</v>
+        <v>0.5643343639378633</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.61051044315991</v>
       </c>
       <c r="E44" t="n">
-        <v>3.41422997349628</v>
+        <v>3.381031400005198</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.759714705343149</v>
+        <v>-1.761428801801876</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5136298138367861</v>
+        <v>0.5148839951468767</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5648047295394542</v>
       </c>
       <c r="E45" t="n">
-        <v>3.131033205591265</v>
+        <v>3.098722341339455</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.677239508783898</v>
+        <v>-1.678798840144989</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4180959471524481</v>
+        <v>0.420494806165811</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5162684135153183</v>
       </c>
       <c r="E46" t="n">
-        <v>2.835468370308162</v>
+        <v>2.804459868953443</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.599270020633192</v>
+        <v>-1.600373816989919</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3802222996742764</v>
+        <v>0.3826299189761849</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4656470632596085</v>
       </c>
       <c r="E47" t="n">
-        <v>2.504017012998615</v>
+        <v>2.47531246753135</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.476795346575407</v>
+        <v>-1.479302249147497</v>
       </c>
       <c r="G47" t="n">
-        <v>0.316615304593839</v>
+        <v>0.3188637786538384</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4148908891824853</v>
       </c>
       <c r="E48" t="n">
-        <v>2.209401208974604</v>
+        <v>2.183584638631156</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.372114278601526</v>
+        <v>-1.375564372240343</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2892218823122099</v>
+        <v>0.2899708869828461</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.365386758869101</v>
       </c>
       <c r="E49" t="n">
-        <v>1.926940305307407</v>
+        <v>1.904254078070867</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.284571255118731</v>
+        <v>-1.289744205504821</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2352847857378608</v>
+        <v>0.2361374538229515</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.31891045621175</v>
       </c>
       <c r="E50" t="n">
-        <v>1.793036374793988</v>
+        <v>1.769970535053812</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.162284927264673</v>
+        <v>-1.168660957277671</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1976447459542345</v>
+        <v>0.1976024045595982</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2765430281781235</v>
       </c>
       <c r="E51" t="n">
-        <v>1.515431591077153</v>
+        <v>1.496204217767977</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.085857249897966</v>
+        <v>-1.092849420205328</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1671282808061518</v>
+        <v>0.166612883830061</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2398237010804255</v>
       </c>
       <c r="E52" t="n">
-        <v>1.355381119351742</v>
+        <v>1.337971505915746</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.003355772473079</v>
+        <v>-1.010407804752168</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1441193829415216</v>
+        <v>0.1440244798156126</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2093898344344463</v>
       </c>
       <c r="E53" t="n">
-        <v>1.111601269756989</v>
+        <v>1.096021096578902</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9293634553220083</v>
+        <v>-0.9373995600143697</v>
       </c>
       <c r="G53" t="n">
-        <v>0.100776395314806</v>
+        <v>0.1004814656004424</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1857652873504437</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9662169811047554</v>
+        <v>0.9516091999552139</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9370564487130062</v>
+        <v>-0.9446735196032769</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05010980646409232</v>
+        <v>0.04943964439036523</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1684930892890786</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8044071514297989</v>
+        <v>0.7907513216355299</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8904517136512006</v>
+        <v>-0.8982775714184712</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02174545220200903</v>
+        <v>0.02225646903382707</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1567589538366319</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6563684953482931</v>
+        <v>0.6456532024091143</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8408202988969412</v>
+        <v>-0.849377640757757</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0155475480561016</v>
+        <v>0.01556506863319251</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1494659227580714</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5125756591151499</v>
+        <v>0.5023056808436982</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.80778379074395</v>
+        <v>-0.8176756165598564</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01205758119870917</v>
+        <v>-0.01210284268952734</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1456684149577752</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4018047305540888</v>
+        <v>0.3927933137370003</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8025246975204969</v>
+        <v>-0.8118894459755853</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02797210538961398</v>
+        <v>-0.0277399577431595</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1443620319041203</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2557458996838553</v>
+        <v>0.2467359429148577</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7376372402643325</v>
+        <v>-0.7472312162696936</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.0935676859698691</v>
+        <v>-0.09259091379705117</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1449664055688892</v>
       </c>
       <c r="E60" t="n">
-        <v>0.194854594052508</v>
+        <v>0.1868856515723283</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7208758881807007</v>
+        <v>-0.7305428665906072</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08038929190132718</v>
+        <v>-0.08008268180223635</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1469662153600693</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0366452429697323</v>
+        <v>0.02909387424355251</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6933393811861626</v>
+        <v>-0.7027012095450692</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1371107001850392</v>
+        <v>-0.1364638988807667</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.149960629071756</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05055174911551701</v>
+        <v>-0.05812647861115134</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7115929024187031</v>
+        <v>-0.7211036556828824</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1685922571212126</v>
+        <v>-0.1688375452004852</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1532860509836255</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1444240810724009</v>
+        <v>-0.1514147913316717</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7456178631292395</v>
+        <v>-0.7548220062943279</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1837563165933903</v>
+        <v>-0.1839665635184812</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1562604587509451</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2569572876791889</v>
+        <v>-0.2646678016472777</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7484372159927841</v>
+        <v>-0.7574982744449635</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2171782774423814</v>
+        <v>-0.2173578633575631</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1580982448103275</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4104025018413295</v>
+        <v>-0.4174749747936912</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7289076127287895</v>
+        <v>-0.7391717508078776</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2375298877815577</v>
+        <v>-0.237813137111194</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1586640903945434</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4332405740793233</v>
+        <v>-0.4427323467183208</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7598066104766902</v>
+        <v>-0.7697495379757784</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2526063443682809</v>
+        <v>-0.2537656225524624</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1579454861553776</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5207178953980272</v>
+        <v>-0.5289467264383886</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8001930007193158</v>
+        <v>-0.8100454052367676</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2672170456140043</v>
+        <v>-0.2688157982735493</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1557846023255059</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5527542706087458</v>
+        <v>-0.5629322658504703</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7477130321396934</v>
+        <v>-0.7598985935064174</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3192020578908085</v>
+        <v>-0.3197130747226266</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1521194716560766</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6333445450826333</v>
+        <v>-0.643566341767085</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7939658956115901</v>
+        <v>-0.8053323699993143</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3169273029651727</v>
+        <v>-0.3184924745186269</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1469578180387076</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7434161106081492</v>
+        <v>-0.7527852392075103</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7892163591718642</v>
+        <v>-0.8029262107454967</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3573312137848892</v>
+        <v>-0.3578860320594345</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1400827606358258</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7713526707795962</v>
+        <v>-0.7811700341428662</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9195533921991927</v>
+        <v>-0.9308410239900079</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4028044115762406</v>
+        <v>-0.402237912916968</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.131485868652497</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8141948619111301</v>
+        <v>-0.8240034649858547</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9861038442309021</v>
+        <v>-0.9975024396766263</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4200724003474178</v>
+        <v>-0.4199804173176905</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.1214519010246452</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8669332590028432</v>
+        <v>-0.8745751507106594</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.021380066155347</v>
+        <v>-1.031559521445163</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4535848841780452</v>
+        <v>-0.4530183855187726</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1102193372738284</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8099490420627676</v>
+        <v>-0.8170375755441294</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.046088459997795</v>
+        <v>-1.056743890965247</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4680057791719504</v>
+        <v>-0.4674407405607687</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.09839533474512073</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7948521448027717</v>
+        <v>-0.8006222548580428</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.11285645919505</v>
+        <v>-1.121640108509957</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4569152538734079</v>
+        <v>-0.4562713726653171</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.08678681317294258</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7117958491033395</v>
+        <v>-0.7170899834809744</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.156108923840129</v>
+        <v>-1.1637259947304</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4593009724539527</v>
+        <v>-0.45907174490368</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.07657875467541769</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5593259470659259</v>
+        <v>-0.5665736257891967</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.139436634690043</v>
+        <v>-1.148445131410949</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4407072600162305</v>
+        <v>-0.4392939334642308</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.0683392288020078</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4195686837560543</v>
+        <v>-0.4283742337923246</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.164648745123854</v>
+        <v>-1.172556365584216</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4539659567297723</v>
+        <v>-0.4516240395919548</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.06264187361816466</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3167126758958092</v>
+        <v>-0.3254700443450795</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.248017491114741</v>
+        <v>-1.253997848095103</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3968926768561513</v>
+        <v>-0.3954705900156062</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.05924449477511782</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1276189275460418</v>
+        <v>-0.1364755792654939</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.305763853158271</v>
+        <v>-1.310798098975724</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3747495875094299</v>
+        <v>-0.3730500915316122</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.05794301312202375</v>
       </c>
       <c r="E81" t="n">
-        <v>0.03155551532482458</v>
+        <v>0.02173961200964539</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.299590769829909</v>
+        <v>-1.302093292257726</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3240362771198072</v>
+        <v>-0.323160248265262</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.05872481238623226</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2437107232704949</v>
+        <v>0.2334115440372249</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.288212615057457</v>
+        <v>-1.290004094065002</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2879073871102715</v>
+        <v>-0.2874095107112716</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.06188564940954153</v>
       </c>
       <c r="E83" t="n">
-        <v>0.426012327901355</v>
+        <v>0.4158387128039032</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.229042706125292</v>
+        <v>-1.231267819415836</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2703152676629125</v>
+        <v>-0.2695122412129128</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.067923891967568</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6314118933303908</v>
+        <v>0.6227625684398477</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.151093658647858</v>
+        <v>-1.15384438925113</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2455966534838283</v>
+        <v>-0.2450651959787375</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.07712574901670624</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7439012984944515</v>
+        <v>0.7378347986767259</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.062052625823791</v>
+        <v>-1.066134920285972</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2098225551603833</v>
+        <v>-0.2095276254460198</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.08890463429185895</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9700101860449363</v>
+        <v>0.9629391731406653</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9972279506355355</v>
+        <v>-1.000073584364717</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1812289733480274</v>
+        <v>-0.1801689784340277</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1012302660005673</v>
       </c>
       <c r="E87" t="n">
-        <v>1.112780988614443</v>
+        <v>1.106470660765536</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9421549366464594</v>
+        <v>-0.9440573793089134</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1511403022905809</v>
+        <v>-0.1502949344459448</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1115924053811274</v>
       </c>
       <c r="E88" t="n">
-        <v>1.213553507848962</v>
+        <v>1.20942157175169</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8879652517523831</v>
+        <v>-0.8890661280129282</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1150055720886815</v>
+        <v>-0.1138973955876818</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1172558810902169</v>
       </c>
       <c r="E89" t="n">
-        <v>1.335680690461111</v>
+        <v>1.331496192632566</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7933190943073176</v>
+        <v>-0.7917977241965907</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1135250833245001</v>
+        <v>-0.1121701586961368</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1153744088274429</v>
       </c>
       <c r="E90" t="n">
-        <v>1.370930631519919</v>
+        <v>1.369885237086829</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6932649187335262</v>
+        <v>-0.6917479287670721</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07897304525314575</v>
+        <v>-0.07798897283987329</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1037331801531396</v>
       </c>
       <c r="E91" t="n">
-        <v>1.415205129828635</v>
+        <v>1.414533507706817</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.588940102493827</v>
+        <v>-0.5858842218395551</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01641874484625345</v>
+        <v>-0.0171998705748896</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08254967419911891</v>
       </c>
       <c r="E92" t="n">
-        <v>1.438030061633811</v>
+        <v>1.438295790386356</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.462334952386861</v>
+        <v>-0.4575343142639532</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02123398345007034</v>
+        <v>-0.02027181175816151</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.05381417763887702</v>
       </c>
       <c r="E93" t="n">
-        <v>1.408502049043273</v>
+        <v>1.410023419154</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.354535221690799</v>
+        <v>-0.3487899324530733</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01436445718234491</v>
+        <v>-0.01364319342543601</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.02076907721647504</v>
       </c>
       <c r="E94" t="n">
-        <v>1.409369317609273</v>
+        <v>1.409922675835727</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2143107429918367</v>
+        <v>-0.2095539063116561</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01670345422398065</v>
+        <v>-0.01670199417588974</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.01412482664735243</v>
       </c>
       <c r="E95" t="n">
-        <v>1.333979734435202</v>
+        <v>1.335899697674747</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09792154937695884</v>
+        <v>-0.09368302976905088</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01891980722598005</v>
+        <v>-0.01900449001525276</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.04930132711536337</v>
       </c>
       <c r="E96" t="n">
-        <v>1.256207352776769</v>
+        <v>1.257617759232586</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02974067554782506</v>
+        <v>0.03305060456991508</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03386485948452149</v>
+        <v>-0.03377433650288515</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.08371412632611824</v>
       </c>
       <c r="E97" t="n">
-        <v>1.172898468757609</v>
+        <v>1.175579117052517</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1314534657528887</v>
+        <v>0.1330522184124337</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05219576326588021</v>
+        <v>-0.05252719418251648</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1158427130872835</v>
       </c>
       <c r="E98" t="n">
-        <v>1.074183157283181</v>
+        <v>1.078056664868362</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1928528681198722</v>
+        <v>0.1939960857750537</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.057348272978697</v>
+        <v>-0.05764320269306056</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1435208710368649</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9369473970263087</v>
+        <v>0.9406398586482169</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1941377104398718</v>
+        <v>0.1953539304995988</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05057072974069882</v>
+        <v>-0.0525812159618801</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1659357370915361</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8418208837593343</v>
+        <v>0.8462039481282422</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2112772149790491</v>
+        <v>0.2116261664727762</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04471155675188222</v>
+        <v>-0.04589127560933644</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1828501950368263</v>
       </c>
       <c r="E101" t="n">
-        <v>0.687939115218012</v>
+        <v>0.6940348159975558</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1968329592156893</v>
+        <v>0.1983908305286889</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04872230885760841</v>
+        <v>-0.04981588487769903</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1953468234550054</v>
       </c>
       <c r="E102" t="n">
-        <v>0.629010114220846</v>
+        <v>0.6339757377780264</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2066021409919594</v>
+        <v>0.2069394121009593</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08084774700187251</v>
+        <v>-0.08191066201205405</v>
       </c>
     </row>
   </sheetData>
